--- a/dataset/片子清单（集合）.xlsx
+++ b/dataset/片子清单（集合）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="937"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="937" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="统计总表" sheetId="16" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3294" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3295" uniqueCount="308">
   <si>
     <r>
       <rPr>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>98</t>
     </r>
     <r>
@@ -177,7 +183,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>张阴性</t>
+      <t>个阴性</t>
     </r>
   </si>
   <si>
@@ -1490,6 +1496,9 @@
     <t>阳性0603清单</t>
   </si>
   <si>
+    <t>771(有重复)</t>
+  </si>
+  <si>
     <t xml:space="preserve">（原片）链接：https://pan.baidu.com/s/1Rm1mTzkYmFrSGQdpOwMICg 
 提取码：5jsb 
 </t>
@@ -1584,7 +1593,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1592,7 +1601,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1620,8 +1629,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1635,33 +1683,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1681,6 +1707,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1691,37 +1731,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1813,6 +1822,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1837,91 +1888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1964,6 +1931,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2073,6 +2082,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2084,15 +2117,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2112,6 +2136,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2127,46 +2171,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2176,10 +2185,10 @@
     <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2188,133 +2197,133 @@
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2898,8 +2907,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -4658,14 +4667,14 @@
   <sheetPr/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="10.375"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5087,36 +5096,40 @@
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="10">
+      <c r="A25" s="14">
         <v>22</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="15">
         <v>1904042</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12" t="s">
+      <c r="D25" s="16">
+        <v>9</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="10">
+      <c r="A26" s="14">
         <v>23</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="15">
         <v>1904032</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12" t="s">
+      <c r="D26" s="16">
+        <v>12</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="6">
@@ -5231,20 +5244,22 @@
       <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="6">
+      <c r="A34" s="14">
         <v>31</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="15">
         <v>1903877</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8" t="s">
+      <c r="D34" s="16">
+        <v>19</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="10">
@@ -5263,36 +5278,40 @@
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="10">
+      <c r="A36" s="14">
         <v>33</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="15">
         <v>1903805</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12" t="s">
+      <c r="D36" s="16">
+        <v>10</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="13"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="6">
+      <c r="A37" s="14">
         <v>34</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="15">
         <v>1903779</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8" t="s">
+      <c r="D37" s="16">
+        <v>18</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="10">
@@ -5396,8 +5415,8 @@
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
-      <c r="D44" s="12">
-        <v>153</v>
+      <c r="D44" s="12" t="s">
+        <v>302</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="13"/>
@@ -5429,7 +5448,7 @@
   <sheetData>
     <row r="1" ht="59" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5439,7 +5458,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -6276,7 +6295,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6290,7 +6309,7 @@
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6304,7 +6323,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6318,7 +6337,7 @@
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6332,7 +6351,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6346,7 +6365,7 @@
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6360,7 +6379,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6374,7 +6393,7 @@
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6388,7 +6407,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6402,7 +6421,7 @@
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6416,7 +6435,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6430,7 +6449,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6444,7 +6463,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6458,7 +6477,7 @@
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6472,7 +6491,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6486,7 +6505,7 @@
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6500,7 +6519,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7650,7 +7669,7 @@
   <sheetData>
     <row r="1" ht="54" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7660,7 +7679,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -63592,8 +63611,8 @@
   <sheetPr/>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
